--- a/runs/run748/NotionalETEOutput748.xlsx
+++ b/runs/run748/NotionalETEOutput748.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER2_State_Update</t>
+    <t>Missile_HELLMASKER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2_73.MISSILE_BRAVER2_73</t>
+    <t>MISSILE_HELLMASKER1_417.MISSILE_HELLMASKER1_417</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER2</t>
+    <t>MISSILE_HELLMASKER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1462.140797492451</v>
+        <v>-1450.459244899673</v>
       </c>
       <c r="J2">
-        <v>2073.18239264882</v>
+        <v>1928.948181481949</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1437.325804166013</v>
+        <v>-1499.800786720113</v>
       </c>
       <c r="J3">
-        <v>1978.780020768359</v>
+        <v>2037.098695163044</v>
       </c>
       <c r="K3">
-        <v>308.1962225438236</v>
+        <v>313.3277905267835</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1499.153611087888</v>
+        <v>-1487.975744522784</v>
       </c>
       <c r="J4">
-        <v>1996.434418917116</v>
+        <v>1936.468976490762</v>
       </c>
       <c r="K4">
-        <v>600.3488391250218</v>
+        <v>606.1752361282673</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1404.532222831245</v>
+        <v>-1374.963429273628</v>
       </c>
       <c r="J5">
-        <v>1803.068221257879</v>
+        <v>1838.35267778787</v>
       </c>
       <c r="K5">
-        <v>872.6056609384465</v>
+        <v>863.2400322443106</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1378.02676497586</v>
+        <v>-1373.463096934105</v>
       </c>
       <c r="J6">
-        <v>1732.444285267508</v>
+        <v>1781.365720238424</v>
       </c>
       <c r="K6">
-        <v>1132.48528888475</v>
+        <v>1129.837040703629</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1330.883972319122</v>
+        <v>-1378.376783644614</v>
       </c>
       <c r="J7">
-        <v>1843.450862361527</v>
+        <v>1711.797018629983</v>
       </c>
       <c r="K7">
-        <v>1299.20131556614</v>
+        <v>1364.553348601882</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1363.411592233614</v>
+        <v>-1340.723648371268</v>
       </c>
       <c r="J8">
-        <v>1629.480353065231</v>
+        <v>1730.65737647762</v>
       </c>
       <c r="K8">
-        <v>1610.766554017151</v>
+        <v>1673.997650886814</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.58021089777559</v>
+        <v>-103.4399356428008</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1241.171260576062</v>
+        <v>-1318.988390405665</v>
       </c>
       <c r="J9">
-        <v>1590.226880230567</v>
+        <v>1700.660287592673</v>
       </c>
       <c r="K9">
-        <v>1804.440315512141</v>
+        <v>1895.273348421337</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.6835348776879</v>
+        <v>219.4134067763128</v>
       </c>
       <c r="G10">
-        <v>-86.03322767227507</v>
+        <v>-82.20513362794146</v>
       </c>
       <c r="H10">
-        <v>838.5780578558517</v>
+        <v>817.2392192620938</v>
       </c>
       <c r="I10">
-        <v>-1226.012797877305</v>
+        <v>-1267.941640388081</v>
       </c>
       <c r="J10">
-        <v>1670.49878137195</v>
+        <v>1556.268712274116</v>
       </c>
       <c r="K10">
-        <v>2038.902178346822</v>
+        <v>2020.925930568103</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>170.2679450297499</v>
+        <v>168.7817525361919</v>
       </c>
       <c r="G11">
-        <v>-68.56295821238699</v>
+        <v>-65.32028287525389</v>
       </c>
       <c r="H11">
-        <v>1005.839872314102</v>
+        <v>1029.158802612303</v>
       </c>
       <c r="I11">
-        <v>-1225.010214386984</v>
+        <v>-1202.633422745506</v>
       </c>
       <c r="J11">
-        <v>1615.820774228038</v>
+        <v>1533.73350829089</v>
       </c>
       <c r="K11">
-        <v>2241.681665916143</v>
+        <v>2217.334522958798</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>143.8898503450286</v>
+        <v>144.4325433246313</v>
       </c>
       <c r="G12">
-        <v>-48.37688831611373</v>
+        <v>-48.86297515293202</v>
       </c>
       <c r="H12">
-        <v>1166.153922805278</v>
+        <v>1218.70223870519</v>
       </c>
       <c r="I12">
-        <v>-1118.19695990536</v>
+        <v>-1144.13017420757</v>
       </c>
       <c r="J12">
-        <v>1439.556060747057</v>
+        <v>1533.473120513366</v>
       </c>
       <c r="K12">
-        <v>2386.308358024894</v>
+        <v>2468.778363510273</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.8570958747789</v>
+        <v>123.8395732124981</v>
       </c>
       <c r="G13">
-        <v>-32.31353846519713</v>
+        <v>-32.29099758156197</v>
       </c>
       <c r="H13">
-        <v>1278.980172607528</v>
+        <v>1231.690424794598</v>
       </c>
       <c r="I13">
-        <v>-1170.609946993399</v>
+        <v>-1156.618866458144</v>
       </c>
       <c r="J13">
-        <v>1450.938045014442</v>
+        <v>1494.85992600671</v>
       </c>
       <c r="K13">
-        <v>2552.088163267971</v>
+        <v>2539.693203996804</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.0583652507428</v>
+        <v>107.8510396786629</v>
       </c>
       <c r="G14">
-        <v>-17.37548686466313</v>
+        <v>-17.08690675547209</v>
       </c>
       <c r="H14">
-        <v>1388.532619896962</v>
+        <v>1319.623098615912</v>
       </c>
       <c r="I14">
-        <v>-1079.852591829552</v>
+        <v>-1131.191603028715</v>
       </c>
       <c r="J14">
-        <v>1352.28065686486</v>
+        <v>1403.744933617415</v>
       </c>
       <c r="K14">
-        <v>2742.618147800375</v>
+        <v>2571.840181519294</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.455149087711</v>
+        <v>100.8537752899606</v>
       </c>
       <c r="G15">
-        <v>-0.9165719724152742</v>
+        <v>-0.8837073222703848</v>
       </c>
       <c r="H15">
-        <v>1314.030566641148</v>
+        <v>1317.916390418199</v>
       </c>
       <c r="I15">
-        <v>-1028.973344115146</v>
+        <v>-1085.173089760829</v>
       </c>
       <c r="J15">
-        <v>1427.69273314141</v>
+        <v>1350.12305174935</v>
       </c>
       <c r="K15">
-        <v>2802.386133629124</v>
+        <v>2682.660305482955</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.50504588008336</v>
+        <v>93.61153202979173</v>
       </c>
       <c r="G16">
-        <v>15.89276518379423</v>
+        <v>15.69955888130558</v>
       </c>
       <c r="H16">
-        <v>1417.694641036931</v>
+        <v>1402.749476046957</v>
       </c>
       <c r="I16">
-        <v>-982.1737073905814</v>
+        <v>-991.4580843089718</v>
       </c>
       <c r="J16">
-        <v>1314.477932418288</v>
+        <v>1346.538956185035</v>
       </c>
       <c r="K16">
-        <v>2865.382943750254</v>
+        <v>2846.290166403098</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.71423035072027</v>
+        <v>89.67365753567023</v>
       </c>
       <c r="G17">
-        <v>32.50000737017733</v>
+        <v>32.12893467325877</v>
       </c>
       <c r="H17">
-        <v>1521.730362307682</v>
+        <v>1451.372560822043</v>
       </c>
       <c r="I17">
-        <v>-1010.769777405912</v>
+        <v>-944.9783659058012</v>
       </c>
       <c r="J17">
-        <v>1234.031325400483</v>
+        <v>1287.26731636895</v>
       </c>
       <c r="K17">
-        <v>3026.314852282598</v>
+        <v>2822.161518583558</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.97574474910387</v>
+        <v>79.28916637953944</v>
       </c>
       <c r="G18">
-        <v>48.47658849840011</v>
+        <v>49.68250054650801</v>
       </c>
       <c r="H18">
-        <v>1481.321831359001</v>
+        <v>1496.01938202712</v>
       </c>
       <c r="I18">
-        <v>-941.0298627018797</v>
+        <v>-937.8873875663617</v>
       </c>
       <c r="J18">
-        <v>1166.686108976143</v>
+        <v>1268.828757781376</v>
       </c>
       <c r="K18">
-        <v>3065.259848777235</v>
+        <v>3084.647354292753</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.34694327261182</v>
+        <v>75.83621415608467</v>
       </c>
       <c r="G19">
-        <v>67.56661832257602</v>
+        <v>62.20637298385066</v>
       </c>
       <c r="H19">
-        <v>1538.532237045708</v>
+        <v>1575.066731791874</v>
       </c>
       <c r="I19">
-        <v>-898.6189551275373</v>
+        <v>-877.8033023308705</v>
       </c>
       <c r="J19">
-        <v>1116.656816846336</v>
+        <v>1216.791668913821</v>
       </c>
       <c r="K19">
-        <v>3022.981834669018</v>
+        <v>3053.006526504306</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.6371451384139</v>
+        <v>75.82376171412992</v>
       </c>
       <c r="G20">
-        <v>83.87539994375405</v>
+        <v>79.04297087333053</v>
       </c>
       <c r="H20">
-        <v>1554.917004824348</v>
+        <v>1611.807936073268</v>
       </c>
       <c r="I20">
-        <v>-846.6598316641036</v>
+        <v>-820.8555317957916</v>
       </c>
       <c r="J20">
-        <v>1136.253787084262</v>
+        <v>1178.209992425881</v>
       </c>
       <c r="K20">
-        <v>3217.944319224679</v>
+        <v>3125.044378741934</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.251000347638</v>
+        <v>68.59731715203995</v>
       </c>
       <c r="G21">
-        <v>97.34559891200085</v>
+        <v>96.87519952626677</v>
       </c>
       <c r="H21">
-        <v>1575.951238694664</v>
+        <v>1531.341952558049</v>
       </c>
       <c r="I21">
-        <v>-805.9766155899457</v>
+        <v>-769.467230534075</v>
       </c>
       <c r="J21">
-        <v>1102.524096130214</v>
+        <v>1085.495322825406</v>
       </c>
       <c r="K21">
-        <v>3211.469372701354</v>
+        <v>3220.112061328915</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.43780328719565</v>
+        <v>70.05723454765403</v>
       </c>
       <c r="G22">
-        <v>114.6423232992817</v>
+        <v>114.2629378349775</v>
       </c>
       <c r="H22">
-        <v>1593.02131764654</v>
+        <v>1664.609760808817</v>
       </c>
       <c r="I22">
-        <v>-736.203457051939</v>
+        <v>-760.0030456752978</v>
       </c>
       <c r="J22">
-        <v>1024.225977687317</v>
+        <v>983.9122147182856</v>
       </c>
       <c r="K22">
-        <v>3061.81564661025</v>
+        <v>3351.157396052891</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.75021243838566</v>
+        <v>68.52235064492741</v>
       </c>
       <c r="G23">
-        <v>127.5470789916405</v>
+        <v>129.0604844604597</v>
       </c>
       <c r="H23">
-        <v>1692.448768149429</v>
+        <v>1650.584336888614</v>
       </c>
       <c r="I23">
-        <v>-680.5870898287005</v>
+        <v>-709.6644632582879</v>
       </c>
       <c r="J23">
-        <v>965.0359766561911</v>
+        <v>937.1983466211442</v>
       </c>
       <c r="K23">
-        <v>3251.107786738025</v>
+        <v>3089.664575697349</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.42612431051309</v>
+        <v>61.94863501142044</v>
       </c>
       <c r="G24">
-        <v>150.5459056986093</v>
+        <v>144.4919995584342</v>
       </c>
       <c r="H24">
-        <v>1600.341407814505</v>
+        <v>1653.422815218874</v>
       </c>
       <c r="I24">
-        <v>-634.9562550946034</v>
+        <v>-667.6687600316932</v>
       </c>
       <c r="J24">
-        <v>946.2529113023033</v>
+        <v>969.7743780906032</v>
       </c>
       <c r="K24">
-        <v>3041.942134707395</v>
+        <v>3043.144437971279</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.13600781607291</v>
+        <v>58.45286103783332</v>
       </c>
       <c r="G25">
-        <v>164.0642166953286</v>
+        <v>159.716863143146</v>
       </c>
       <c r="H25">
-        <v>1736.500895046547</v>
+        <v>1715.03128226636</v>
       </c>
       <c r="I25">
-        <v>-608.7750338770634</v>
+        <v>-574.5481859707588</v>
       </c>
       <c r="J25">
-        <v>878.7476921123468</v>
+        <v>860.2782488970507</v>
       </c>
       <c r="K25">
-        <v>3114.943233357766</v>
+        <v>3278.939540688028</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.14191532186405</v>
+        <v>59.79369584921064</v>
       </c>
       <c r="G26">
-        <v>173.3189619001905</v>
+        <v>180.7229744608087</v>
       </c>
       <c r="H26">
-        <v>1774.817105837309</v>
+        <v>1659.595583123503</v>
       </c>
       <c r="I26">
-        <v>-532.7825972354103</v>
+        <v>-550.3183410673302</v>
       </c>
       <c r="J26">
-        <v>858.3031869177315</v>
+        <v>854.7049920499841</v>
       </c>
       <c r="K26">
-        <v>3098.19112793054</v>
+        <v>2959.12330913609</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.23997724876288</v>
+        <v>58.07379277764614</v>
       </c>
       <c r="G27">
-        <v>190.2984510820561</v>
+        <v>198.1341329014743</v>
       </c>
       <c r="H27">
-        <v>1723.321645172824</v>
+        <v>1638.860521138257</v>
       </c>
       <c r="I27">
-        <v>-504.7050756503804</v>
+        <v>-495.8773023779112</v>
       </c>
       <c r="J27">
-        <v>782.5549469358222</v>
+        <v>753.5884027641854</v>
       </c>
       <c r="K27">
-        <v>3088.497003651263</v>
+        <v>3196.885255692148</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.00617054037424</v>
+        <v>58.42342328242005</v>
       </c>
       <c r="G28">
-        <v>206.3085763806114</v>
+        <v>211.6273455795703</v>
       </c>
       <c r="H28">
-        <v>1785.280053739325</v>
+        <v>1805.807111249149</v>
       </c>
       <c r="I28">
-        <v>-440.7044903934462</v>
+        <v>-455.1304694357228</v>
       </c>
       <c r="J28">
-        <v>744.643340421968</v>
+        <v>718.3031985246886</v>
       </c>
       <c r="K28">
-        <v>3052.053112085905</v>
+        <v>2990.266003309722</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.72594575611945</v>
+        <v>55.02490311922527</v>
       </c>
       <c r="G29">
-        <v>241.1035007171136</v>
+        <v>218.9027627617482</v>
       </c>
       <c r="H29">
-        <v>1782.627677982022</v>
+        <v>1812.001294975526</v>
       </c>
       <c r="I29">
-        <v>-378.589341121718</v>
+        <v>-394.8231560250304</v>
       </c>
       <c r="J29">
-        <v>691.2940605426601</v>
+        <v>675.8059278529897</v>
       </c>
       <c r="K29">
-        <v>2821.974052222476</v>
+        <v>3014.559214267328</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.89818126807268</v>
+        <v>51.76709788352873</v>
       </c>
       <c r="G30">
-        <v>250.0710372422664</v>
+        <v>246.6560600965457</v>
       </c>
       <c r="H30">
-        <v>1725.68632981414</v>
+        <v>1792.695348926784</v>
       </c>
       <c r="I30">
-        <v>-310.5371590141859</v>
+        <v>-335.2817058273721</v>
       </c>
       <c r="J30">
-        <v>610.4775943535984</v>
+        <v>647.216176835891</v>
       </c>
       <c r="K30">
-        <v>2730.146266562722</v>
+        <v>2769.541340205158</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.33533759965536</v>
+        <v>52.23315643937334</v>
       </c>
       <c r="G31">
-        <v>268.8623899997664</v>
+        <v>265.0024227243376</v>
       </c>
       <c r="H31">
-        <v>1829.705080264269</v>
+        <v>1686.989833951644</v>
       </c>
       <c r="I31">
-        <v>-267.8262716777144</v>
+        <v>-260.7666282799453</v>
       </c>
       <c r="J31">
-        <v>599.705219582146</v>
+        <v>569.0761084332358</v>
       </c>
       <c r="K31">
-        <v>2680.573774405781</v>
+        <v>2666.580445336408</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.05429811453114</v>
+        <v>53.43428942963138</v>
       </c>
       <c r="G32">
-        <v>282.2620637596821</v>
+        <v>280.9553123783432</v>
       </c>
       <c r="H32">
-        <v>1763.547147777138</v>
+        <v>1714.859665504926</v>
       </c>
       <c r="I32">
-        <v>-216.7424328532557</v>
+        <v>-207.1405991381203</v>
       </c>
       <c r="J32">
-        <v>567.113210637594</v>
+        <v>560.5065509548964</v>
       </c>
       <c r="K32">
-        <v>2614.170704851264</v>
+        <v>2454.443723686746</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.88535190339572</v>
+        <v>49.2666510685168</v>
       </c>
       <c r="G33">
-        <v>291.32021941983</v>
+        <v>288.2921334764468</v>
       </c>
       <c r="H33">
-        <v>1757.961091343726</v>
+        <v>1877.336302839623</v>
       </c>
       <c r="I33">
-        <v>-151.903135538446</v>
+        <v>-139.5044237612057</v>
       </c>
       <c r="J33">
-        <v>508.6466496363548</v>
+        <v>480.8250005925573</v>
       </c>
       <c r="K33">
-        <v>2379.350938620259</v>
+        <v>2407.4459257044</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.10417749520932</v>
+        <v>48.18595852266095</v>
       </c>
       <c r="G34">
-        <v>301.9617292414212</v>
+        <v>328.3826569868306</v>
       </c>
       <c r="H34">
-        <v>1765.763342105004</v>
+        <v>1835.823334575912</v>
       </c>
       <c r="I34">
-        <v>-79.44825747337634</v>
+        <v>-79.53377183623741</v>
       </c>
       <c r="J34">
-        <v>461.9375977404043</v>
+        <v>434.729610162081</v>
       </c>
       <c r="K34">
-        <v>2271.853699121781</v>
+        <v>2200.457718402889</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.80585548612154</v>
+        <v>47.67018253325895</v>
       </c>
       <c r="G35">
-        <v>334.1174631559679</v>
+        <v>328.4812367132562</v>
       </c>
       <c r="H35">
-        <v>1735.575790408647</v>
+        <v>1886.941549487537</v>
       </c>
       <c r="I35">
-        <v>-18.01247199433878</v>
+        <v>-19.08494184568662</v>
       </c>
       <c r="J35">
-        <v>392.3614978666104</v>
+        <v>409.4696220881334</v>
       </c>
       <c r="K35">
-        <v>1976.120185128489</v>
+        <v>2002.685125496637</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.45164997410188</v>
+        <v>45.72394566541651</v>
       </c>
       <c r="G36">
-        <v>335.755265931862</v>
+        <v>341.535704856872</v>
       </c>
       <c r="H36">
-        <v>1825.832885383513</v>
+        <v>1885.014380544727</v>
       </c>
       <c r="I36">
-        <v>48.30479648153495</v>
+        <v>47.93494880036867</v>
       </c>
       <c r="J36">
-        <v>329.9176393374713</v>
+        <v>345.078846862416</v>
       </c>
       <c r="K36">
-        <v>1794.364242290922</v>
+        <v>1780.50749657058</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.3926171503608</v>
+        <v>44.55238891933566</v>
       </c>
       <c r="G37">
-        <v>362.2589310185104</v>
+        <v>348.6033254585248</v>
       </c>
       <c r="H37">
-        <v>1930.463143581387</v>
+        <v>1760.903042994623</v>
       </c>
       <c r="I37">
-        <v>109.6144150553013</v>
+        <v>113.8597550741341</v>
       </c>
       <c r="J37">
-        <v>306.5841535538784</v>
+        <v>307.8912435306052</v>
       </c>
       <c r="K37">
-        <v>1686.564917748992</v>
+        <v>1559.34395490312</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.87975554697764</v>
+        <v>45.27372396736017</v>
       </c>
       <c r="G38">
-        <v>374.6552346672566</v>
+        <v>375.24100663031</v>
       </c>
       <c r="H38">
-        <v>1887.226459752101</v>
+        <v>1889.425083066324</v>
       </c>
       <c r="I38">
-        <v>182.9424962773412</v>
+        <v>184.688341692568</v>
       </c>
       <c r="J38">
-        <v>250.4735881131064</v>
+        <v>241.5811529292007</v>
       </c>
       <c r="K38">
-        <v>1396.079564092913</v>
+        <v>1375.240776790025</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.6231765575759</v>
+        <v>44.01511933809241</v>
       </c>
       <c r="G39">
-        <v>376.5366850685257</v>
+        <v>400.0862268355809</v>
       </c>
       <c r="H39">
-        <v>1835.448810976168</v>
+        <v>1934.56148941765</v>
       </c>
       <c r="I39">
-        <v>247.2528142681452</v>
+        <v>266.6416256982114</v>
       </c>
       <c r="J39">
-        <v>204.3429144011654</v>
+        <v>197.5430370333026</v>
       </c>
       <c r="K39">
-        <v>1198.224305061878</v>
+        <v>1123.30960085927</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.4923646653845</v>
+        <v>44.85891179943118</v>
       </c>
       <c r="G40">
-        <v>427.6069194534739</v>
+        <v>406.8271245483326</v>
       </c>
       <c r="H40">
-        <v>1796.902851948026</v>
+        <v>1823.451603576865</v>
       </c>
       <c r="I40">
-        <v>332.5390813394578</v>
+        <v>314.9872732782644</v>
       </c>
       <c r="J40">
-        <v>155.5115791378094</v>
+        <v>150.9540450090694</v>
       </c>
       <c r="K40">
-        <v>898.9868711576999</v>
+        <v>881.6698956103635</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.45910553514225</v>
+        <v>44.09777874512834</v>
       </c>
       <c r="G41">
-        <v>428.4030305196131</v>
+        <v>412.0957646379707</v>
       </c>
       <c r="H41">
-        <v>1956.602825036443</v>
+        <v>1850.767467254127</v>
       </c>
       <c r="I41">
-        <v>403.7778049135214</v>
+        <v>397.385183611102</v>
       </c>
       <c r="J41">
-        <v>99.23917773166031</v>
+        <v>101.6896646173362</v>
       </c>
       <c r="K41">
-        <v>628.7534689198483</v>
+        <v>651.151571034935</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.42702350780164</v>
+        <v>42.58639753630425</v>
       </c>
       <c r="G42">
-        <v>445.8005871573494</v>
+        <v>450.8113880810756</v>
       </c>
       <c r="H42">
-        <v>1842.226813580067</v>
+        <v>1804.992253539731</v>
       </c>
       <c r="I42">
-        <v>474.8246181664181</v>
+        <v>482.8325734683951</v>
       </c>
       <c r="J42">
-        <v>53.06425019635421</v>
+        <v>56.49184464011903</v>
       </c>
       <c r="K42">
-        <v>342.2176499213792</v>
+        <v>335.6685720480679</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.81174604705373</v>
+        <v>41.07692451160005</v>
       </c>
       <c r="G43">
-        <v>466.7248310389058</v>
+        <v>455.009281189486</v>
       </c>
       <c r="H43">
-        <v>1863.71321909325</v>
+        <v>1887.088927557527</v>
       </c>
       <c r="I43">
-        <v>572.6542304078589</v>
+        <v>557.8232852322553</v>
       </c>
       <c r="J43">
-        <v>5.089421613516693</v>
+        <v>5.247645204988026</v>
       </c>
       <c r="K43">
-        <v>34.82613160154765</v>
+        <v>33.79939066804038</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.47409171538044</v>
+        <v>40.95354709632821</v>
       </c>
       <c r="G44">
-        <v>484.0596296313223</v>
+        <v>479.1610839898865</v>
       </c>
       <c r="H44">
-        <v>1874.676242144036</v>
+        <v>1901.182121226303</v>
       </c>
       <c r="I44">
-        <v>617.4512910686033</v>
+        <v>614.9386473648627</v>
       </c>
       <c r="J44">
-        <v>-41.6091482675374</v>
+        <v>-43.59274178901936</v>
       </c>
       <c r="K44">
-        <v>-273.9911024772773</v>
+        <v>-289.8309205824438</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.83744250963214</v>
+        <v>39.03724850655311</v>
       </c>
       <c r="G45">
-        <v>478.9449751248952</v>
+        <v>514.2493463373911</v>
       </c>
       <c r="H45">
-        <v>1984.578597108999</v>
+        <v>1869.597980036199</v>
       </c>
       <c r="I45">
-        <v>691.6253552189216</v>
+        <v>725.4344090020256</v>
       </c>
       <c r="J45">
-        <v>-88.36279632801143</v>
+        <v>-89.24938276368266</v>
       </c>
       <c r="K45">
-        <v>-604.8409214689552</v>
+        <v>-597.2935106136406</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.55766486420912</v>
+        <v>39.52595867784601</v>
       </c>
       <c r="G46">
-        <v>525.2344200342636</v>
+        <v>526.9135197044196</v>
       </c>
       <c r="H46">
-        <v>1929.249002745115</v>
+        <v>1910.367982095663</v>
       </c>
       <c r="I46">
-        <v>818.7265658415462</v>
+        <v>802.8857350318914</v>
       </c>
       <c r="J46">
-        <v>-134.8172633139696</v>
+        <v>-135.0743271606763</v>
       </c>
       <c r="K46">
-        <v>-987.7184640478961</v>
+        <v>-995.8319361626517</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.71876286336042</v>
+        <v>41.44054882456521</v>
       </c>
       <c r="G47">
-        <v>502.5914348451979</v>
+        <v>536.4648113937939</v>
       </c>
       <c r="H47">
-        <v>1947.484344282992</v>
+        <v>2005.548905499785</v>
       </c>
       <c r="I47">
-        <v>933.4185278925781</v>
+        <v>918.0121194501424</v>
       </c>
       <c r="J47">
-        <v>-182.6328076888664</v>
+        <v>-195.2328795074973</v>
       </c>
       <c r="K47">
-        <v>-1325.988951741918</v>
+        <v>-1295.109853851397</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.97287199048817</v>
+        <v>38.54628507506894</v>
       </c>
       <c r="G48">
-        <v>523.358678464128</v>
+        <v>541.6365969030908</v>
       </c>
       <c r="H48">
-        <v>1946.498561178348</v>
+        <v>1899.75906960263</v>
       </c>
       <c r="I48">
-        <v>964.9829152186275</v>
+        <v>994.1504805274202</v>
       </c>
       <c r="J48">
-        <v>-233.820202829443</v>
+        <v>-229.472835212186</v>
       </c>
       <c r="K48">
-        <v>-1701.839118404728</v>
+        <v>-1652.272127978261</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.06017532368843</v>
+        <v>39.90898050532228</v>
       </c>
       <c r="G49">
-        <v>558.5786145451001</v>
+        <v>557.597396275647</v>
       </c>
       <c r="H49">
-        <v>1861.5928659856</v>
+        <v>1984.377176144472</v>
       </c>
       <c r="I49">
-        <v>1057.90413342136</v>
+        <v>1101.880280135012</v>
       </c>
       <c r="J49">
-        <v>-297.0269131301851</v>
+        <v>-298.0173448447391</v>
       </c>
       <c r="K49">
-        <v>-2093.37839295105</v>
+        <v>-2145.726564750023</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.821264746797</v>
+        <v>40.13195810900212</v>
       </c>
       <c r="G50">
-        <v>597.4193383878994</v>
+        <v>583.204469588382</v>
       </c>
       <c r="H50">
-        <v>2033.976590842806</v>
+        <v>2030.564685463938</v>
       </c>
       <c r="I50">
-        <v>1206.822229454857</v>
+        <v>1216.845282325611</v>
       </c>
       <c r="J50">
-        <v>-345.7992652512543</v>
+        <v>-328.9280584681155</v>
       </c>
       <c r="K50">
-        <v>-2546.93752020843</v>
+        <v>-2445.577995904347</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.06769489286962</v>
+        <v>36.6114507273579</v>
       </c>
       <c r="G51">
-        <v>571.0193344450638</v>
+        <v>570.2266360571718</v>
       </c>
       <c r="H51">
-        <v>1889.456992329347</v>
+        <v>1979.581574380587</v>
       </c>
       <c r="I51">
-        <v>1293.547634460695</v>
+        <v>1201.596258061286</v>
       </c>
       <c r="J51">
-        <v>-365.0755437433376</v>
+        <v>-367.7130886514287</v>
       </c>
       <c r="K51">
-        <v>-2905.114389503019</v>
+        <v>-2904.52010663233</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.97983684525379</v>
+        <v>38.2457614461196</v>
       </c>
       <c r="G52">
-        <v>597.6511365145087</v>
+        <v>622.3725115661255</v>
       </c>
       <c r="H52">
-        <v>1980.66264298399</v>
+        <v>2015.958391663782</v>
       </c>
       <c r="I52">
-        <v>1388.167805185042</v>
+        <v>1410.638922732508</v>
       </c>
       <c r="J52">
-        <v>-443.5174913630505</v>
+        <v>-410.9928543208989</v>
       </c>
       <c r="K52">
-        <v>-3474.081728450246</v>
+        <v>-3277.088001681218</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.83308482162927</v>
+        <v>38.52072151892809</v>
       </c>
       <c r="G53">
-        <v>656.9518461657209</v>
+        <v>626.730456306685</v>
       </c>
       <c r="H53">
-        <v>1889.371069143711</v>
+        <v>1994.3290868981</v>
       </c>
       <c r="I53">
-        <v>1474.255227568901</v>
+        <v>1454.998220822499</v>
       </c>
       <c r="J53">
-        <v>-486.4510234595413</v>
+        <v>-461.6597275184532</v>
       </c>
       <c r="K53">
-        <v>-3642.466292439671</v>
+        <v>-3761.967315852046</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.33467605302304</v>
+        <v>35.27993729832831</v>
       </c>
       <c r="G54">
-        <v>666.357344740921</v>
+        <v>643.1394700160928</v>
       </c>
       <c r="H54">
-        <v>1887.907458983264</v>
+        <v>2034.749697341855</v>
       </c>
       <c r="I54">
-        <v>1604.598327153208</v>
+        <v>1553.163794848737</v>
       </c>
       <c r="J54">
-        <v>-535.5683270739213</v>
+        <v>-522.7714651952753</v>
       </c>
       <c r="K54">
-        <v>-4196.807539956352</v>
+        <v>-4217.651145680175</v>
       </c>
     </row>
   </sheetData>
